--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/17/word_level_predictions_17.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>6</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>6</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>6</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>2</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>6</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" t="n">
         <v>26</v>
       </c>
-      <c r="B321" s="2" t="inlineStr">
+      <c r="B321" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" s="2" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" s="2" t="n">
+      <c r="D321" t="n">
         <v>4</v>
       </c>
-      <c r="E321" s="2" t="inlineStr">
+      <c r="E321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" s="2" t="inlineStr">
+      <c r="F321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L321" s="2" t="inlineStr">
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K321" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" t="n">
         <v>26</v>
       </c>
-      <c r="B322" s="2" t="inlineStr">
+      <c r="B322" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" s="2" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" s="2" t="n">
+      <c r="D322" t="n">
         <v>5</v>
       </c>
-      <c r="E322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L322" s="2" t="inlineStr">
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" t="b">
+        <v>1</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K322" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" t="n">
         <v>26</v>
       </c>
-      <c r="B323" s="2" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" s="2" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" s="2" t="n">
+      <c r="D323" t="n">
         <v>6</v>
       </c>
-      <c r="E323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L323" s="2" t="inlineStr">
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" t="b">
+        <v>1</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K323" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" t="n">
         <v>26</v>
       </c>
-      <c r="B324" s="2" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" s="2" t="n">
+      <c r="D324" t="n">
         <v>7</v>
       </c>
-      <c r="E324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L324" s="2" t="inlineStr">
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" t="n">
         <v>26</v>
       </c>
-      <c r="B325" s="2" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" s="2" t="n">
+      <c r="D325" t="n">
         <v>8</v>
       </c>
-      <c r="E325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" t="n">
         <v>26</v>
       </c>
-      <c r="B326" s="2" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
+      <c r="D326" t="n">
         <v>9</v>
       </c>
-      <c r="E326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" t="n">
         <v>26</v>
       </c>
-      <c r="B327" s="2" t="inlineStr">
+      <c r="B327" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" s="2" t="inlineStr">
+      <c r="C327" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" s="2" t="n">
+      <c r="D327" t="n">
         <v>10</v>
       </c>
-      <c r="E327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L327" s="2" t="inlineStr">
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K327" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" t="n">
         <v>26</v>
       </c>
-      <c r="B328" s="2" t="inlineStr">
+      <c r="B328" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" s="2" t="inlineStr">
+      <c r="C328" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" s="2" t="n">
+      <c r="D328" t="n">
         <v>11</v>
       </c>
-      <c r="E328" s="2" t="inlineStr">
+      <c r="E328" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L328" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K328" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" t="inlineStr">
+      <c r="D330" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K330" t="b">
-        <v>1</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" t="inlineStr">
+      <c r="D331" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F331" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space . Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G331" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K331" t="b">
-        <v>1</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
+      <c r="F332" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D332" t="n">
-        <v>2</v>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K332" t="b">
-        <v>1</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>27</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K333" t="b">
-        <v>1</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/17/word_level_predictions_17.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="D75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C321" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" t="n">
+      <c r="D321" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E321" t="inlineStr">
+      <c r="E321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
+      <c r="F321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K321" t="b">
-        <v>1</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="G321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J321" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L321" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C322" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D322" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" t="b">
-        <v>1</v>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K322" t="b">
-        <v>1</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="E322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J322" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L322" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C323" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" t="b">
-        <v>1</v>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K323" t="b">
-        <v>1</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="E323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J323" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L323" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C324" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" t="n">
+      <c r="D324" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" t="b">
-        <v>1</v>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K324" t="b">
-        <v>1</v>
-      </c>
-      <c r="L324" t="inlineStr">
+      <c r="E324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J324" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L324" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" t="b">
-        <v>1</v>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K327" t="b">
-        <v>1</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="E327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="E328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" t="b">
-        <v>1</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K328" t="b">
-        <v>1</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F328" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" t="n">
         <v>27</v>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" s="2" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" s="2" t="inlineStr">
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L330" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>27</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" s="2" t="inlineStr">
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>27</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>2</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>27</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>3</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
